--- a/contract_generator/data/Temporary Worker_Template.xlsx
+++ b/contract_generator/data/Temporary Worker_Template.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/contract_automation/contract_generator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/contract_auto/contract_generator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9056631-DC13-9342-BE64-530F4DD1FD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3811F4-7969-A749-8959-8CE68EFFF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>이메일</t>
   </si>
@@ -287,6 +300,58 @@
   </si>
   <si>
     <t>517460253</t>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득세율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 ~ 20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 ~15:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 대박 호수 카페 운영 (주간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 대박 호수 카페 운영 (야간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 송파구 석촌호수로 42길 1000, 101호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약마감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효계약일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,9 +417,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -661,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -680,9 +751,14 @@
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +792,32 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -751,8 +851,33 @@
       <c r="K2" t="s">
         <v>79</v>
       </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O2" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P2" s="4">
+        <f>DATEDIF(N2, O2, "d")</f>
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2">
+        <v>2500000</v>
+      </c>
+      <c r="S2">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -786,8 +911,33 @@
       <c r="K3" t="s">
         <v>80</v>
       </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P11" si="0">DATEDIF(N3, O3, "d")</f>
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3">
+        <v>2500000</v>
+      </c>
+      <c r="S3">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -821,8 +971,33 @@
       <c r="K4" t="s">
         <v>81</v>
       </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4">
+        <v>2500000</v>
+      </c>
+      <c r="S4">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -856,8 +1031,33 @@
       <c r="K5" t="s">
         <v>82</v>
       </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5">
+        <v>2500000</v>
+      </c>
+      <c r="S5">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -891,8 +1091,33 @@
       <c r="K6" t="s">
         <v>83</v>
       </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6">
+        <v>2500000</v>
+      </c>
+      <c r="S6">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -926,8 +1151,33 @@
       <c r="K7" t="s">
         <v>84</v>
       </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45321</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7">
+        <v>2500000</v>
+      </c>
+      <c r="S7">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -961,8 +1211,33 @@
       <c r="K8" t="s">
         <v>85</v>
       </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45316</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8">
+        <v>2000000</v>
+      </c>
+      <c r="S8">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -996,8 +1271,33 @@
       <c r="K9" t="s">
         <v>86</v>
       </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45316</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9">
+        <v>2000000</v>
+      </c>
+      <c r="S9">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1031,8 +1331,33 @@
       <c r="K10" t="s">
         <v>87</v>
       </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45316</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10">
+        <v>2000000</v>
+      </c>
+      <c r="S10">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1065,6 +1390,31 @@
       </c>
       <c r="K11" t="s">
         <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="2">
+        <v>45296</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45316</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11">
+        <v>2000000</v>
+      </c>
+      <c r="S11">
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/contract_generator/data/Temporary Worker_Template.xlsx
+++ b/contract_generator/data/Temporary Worker_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/GitHub/contract_auto/contract_generator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3811F4-7969-A749-8959-8CE68EFFF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC6692-DCE7-CD4C-BA39-D4EF2CB9791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>총비용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15:00 ~ 20:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,15 +338,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계약시작</t>
+    <t>유효계약일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계약마감</t>
+    <t>지급금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유효계약일</t>
+    <t>계약시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약마감일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,17 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -734,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -792,28 +788,28 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -852,10 +848,10 @@
         <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" s="2">
         <v>45296</v>
@@ -863,12 +859,12 @@
       <c r="O2" s="2">
         <v>45321</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2">
         <f>DATEDIF(N2, O2, "d")</f>
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2">
         <v>2500000</v>
@@ -912,10 +908,10 @@
         <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" s="2">
         <v>45296</v>
@@ -923,12 +919,12 @@
       <c r="O3" s="2">
         <v>45321</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <f t="shared" ref="P3:P11" si="0">DATEDIF(N3, O3, "d")</f>
         <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3">
         <v>2500000</v>
@@ -972,10 +968,10 @@
         <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2">
         <v>45296</v>
@@ -983,12 +979,12 @@
       <c r="O4" s="2">
         <v>45321</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4">
         <v>2500000</v>
@@ -1032,10 +1028,10 @@
         <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="2">
         <v>45296</v>
@@ -1043,12 +1039,12 @@
       <c r="O5" s="2">
         <v>45321</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R5">
         <v>2500000</v>
@@ -1092,10 +1088,10 @@
         <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="2">
         <v>45296</v>
@@ -1103,12 +1099,12 @@
       <c r="O6" s="2">
         <v>45321</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6">
         <v>2500000</v>
@@ -1152,10 +1148,10 @@
         <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2">
         <v>45296</v>
@@ -1163,12 +1159,12 @@
       <c r="O7" s="2">
         <v>45321</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7">
         <v>2500000</v>
@@ -1212,10 +1208,10 @@
         <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2">
         <v>45296</v>
@@ -1223,12 +1219,12 @@
       <c r="O8" s="2">
         <v>45316</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8">
         <v>2000000</v>
@@ -1272,10 +1268,10 @@
         <v>86</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2">
         <v>45296</v>
@@ -1283,12 +1279,12 @@
       <c r="O9" s="2">
         <v>45316</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9">
         <v>2000000</v>
@@ -1332,10 +1328,10 @@
         <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2">
         <v>45296</v>
@@ -1343,12 +1339,12 @@
       <c r="O10" s="2">
         <v>45316</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R10">
         <v>2000000</v>
@@ -1392,10 +1388,10 @@
         <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2">
         <v>45296</v>
@@ -1403,12 +1399,12 @@
       <c r="O11" s="2">
         <v>45316</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R11">
         <v>2000000</v>
